--- a/doc/Ant_Colony_Rush_GANTT.xlsx
+++ b/doc/Ant_Colony_Rush_GANTT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8590DB5A-8B7C-40CD-9BE1-F828E3F4C348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1519EF6E-CC93-4139-A6CC-AE0B1D3DE498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Interface</t>
+  </si>
+  <si>
+    <t>Gestion de la fin du jeu</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1463,67 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="129">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2697,15 +2760,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="122"/>
-      <tableStyleElement type="headerRow" dxfId="121"/>
-      <tableStyleElement type="totalRow" dxfId="120"/>
-      <tableStyleElement type="firstColumn" dxfId="119"/>
-      <tableStyleElement type="lastColumn" dxfId="118"/>
-      <tableStyleElement type="firstRowStripe" dxfId="117"/>
-      <tableStyleElement type="secondRowStripe" dxfId="116"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="115"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="114"/>
+      <tableStyleElement type="wholeTable" dxfId="128"/>
+      <tableStyleElement type="headerRow" dxfId="127"/>
+      <tableStyleElement type="totalRow" dxfId="126"/>
+      <tableStyleElement type="firstColumn" dxfId="125"/>
+      <tableStyleElement type="lastColumn" dxfId="124"/>
+      <tableStyleElement type="firstRowStripe" dxfId="123"/>
+      <tableStyleElement type="secondRowStripe" dxfId="122"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="121"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="120"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3120,11 +3183,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE47"/>
+  <dimension ref="A1:BE48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3761,7 +3824,7 @@
       <c r="F8" s="70"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H44" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H45" si="4">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="31"/>
@@ -4880,24 +4943,24 @@
     <row r="24" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="45"/>
       <c r="B24" s="62" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D24" s="23">
         <v>0.99</v>
       </c>
       <c r="E24" s="77">
-        <v>45758</v>
+        <v>45757</v>
       </c>
       <c r="F24" s="77">
-        <v>45759</v>
+        <v>45761</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -4951,15 +5014,26 @@
     </row>
     <row r="25" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45"/>
-      <c r="B25" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
+      <c r="B25" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.99</v>
+      </c>
+      <c r="E25" s="77">
+        <v>45758</v>
+      </c>
+      <c r="F25" s="77">
+        <v>45759</v>
+      </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -5012,27 +5086,15 @@
     </row>
     <row r="26" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="45"/>
-      <c r="B26" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="23">
-        <v>1</v>
-      </c>
-      <c r="E26" s="77">
-        <v>45729</v>
-      </c>
-      <c r="F26" s="77">
-        <f>E26+17</f>
-        <v>45746</v>
-      </c>
+      <c r="B26" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="14">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -5086,25 +5148,25 @@
     <row r="27" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="45"/>
       <c r="B27" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="23">
         <v>1</v>
       </c>
       <c r="E27" s="77">
-        <v>45726</v>
+        <v>45729</v>
       </c>
       <c r="F27" s="77">
-        <f>E27+5</f>
-        <v>45731</v>
+        <f>E27+17</f>
+        <v>45746</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -5158,15 +5220,27 @@
     </row>
     <row r="28" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="45"/>
-      <c r="B28" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
+      <c r="B28" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1</v>
+      </c>
+      <c r="E28" s="77">
+        <v>45726</v>
+      </c>
+      <c r="F28" s="77">
+        <f>E28+5</f>
+        <v>45731</v>
+      </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="14">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
@@ -5219,22 +5293,13 @@
     </row>
     <row r="29" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="45"/>
-      <c r="B29" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="E29" s="77">
-        <v>45728</v>
-      </c>
-      <c r="F29" s="77">
-        <f>E29+7</f>
-        <v>45735</v>
-      </c>
+      <c r="B29" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="31"/>
@@ -5290,19 +5355,20 @@
     <row r="30" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45"/>
       <c r="B30" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="23">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E30" s="77">
-        <v>45748</v>
+        <v>45728</v>
       </c>
       <c r="F30" s="77">
-        <v>9.0019753086419758</v>
+        <f>E30+7</f>
+        <v>45735</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -5359,19 +5425,19 @@
     <row r="31" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="45"/>
       <c r="B31" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D31" s="23">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E31" s="77">
-        <v>45730</v>
+        <v>45748</v>
       </c>
       <c r="F31" s="77">
-        <v>45732</v>
+        <v>9.0019753086419758</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -5427,13 +5493,21 @@
     </row>
     <row r="32" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="45"/>
-      <c r="B32" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
+      <c r="B32" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
+      <c r="E32" s="77">
+        <v>45730</v>
+      </c>
+      <c r="F32" s="77">
+        <v>45732</v>
+      </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="31"/>
@@ -5488,22 +5562,13 @@
     </row>
     <row r="33" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="45"/>
-      <c r="B33" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="23">
-        <v>1</v>
-      </c>
-      <c r="E33" s="77">
-        <v>45743</v>
-      </c>
-      <c r="F33" s="77">
-        <f>E33+7</f>
-        <v>45750</v>
-      </c>
+      <c r="B33" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="31"/>
@@ -5559,7 +5624,7 @@
     <row r="34" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="45"/>
       <c r="B34" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="56" t="s">
         <v>58</v>
@@ -5568,10 +5633,11 @@
         <v>1</v>
       </c>
       <c r="E34" s="77">
-        <v>45759</v>
+        <v>45743</v>
       </c>
       <c r="F34" s="77">
-        <v>45761</v>
+        <f>E34+7</f>
+        <v>45750</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -5628,20 +5694,19 @@
     <row r="35" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="45"/>
       <c r="B35" s="62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D35" s="23">
         <v>1</v>
       </c>
       <c r="E35" s="77">
-        <v>45740</v>
+        <v>45759</v>
       </c>
       <c r="F35" s="77">
-        <f>E35+7</f>
-        <v>45747</v>
+        <v>45761</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -5698,20 +5763,20 @@
     <row r="36" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="45"/>
       <c r="B36" s="62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D36" s="23">
         <v>1</v>
       </c>
       <c r="E36" s="77">
-        <v>45756</v>
+        <v>45740</v>
       </c>
       <c r="F36" s="77">
-        <f>E36+1</f>
-        <v>45757</v>
+        <f>E36+7</f>
+        <v>45747</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -5768,10 +5833,10 @@
     <row r="37" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="45"/>
       <c r="B37" s="62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="23">
         <v>1</v>
@@ -5780,8 +5845,8 @@
         <v>45756</v>
       </c>
       <c r="F37" s="77">
-        <f>E37+2</f>
-        <v>45758</v>
+        <f>E37+1</f>
+        <v>45757</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
@@ -5838,20 +5903,20 @@
     <row r="38" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="45"/>
       <c r="B38" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D38" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="77">
-        <v>45762</v>
+        <v>45756</v>
       </c>
       <c r="F38" s="77">
-        <f>E38+1</f>
-        <v>45763</v>
+        <f>E38+2</f>
+        <v>45758</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -5908,10 +5973,10 @@
     <row r="39" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="45"/>
       <c r="B39" s="62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="23">
         <v>0</v>
@@ -5976,21 +6041,25 @@
       <c r="BE39" s="31"/>
     </row>
     <row r="40" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="79"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="23">
+        <v>0</v>
+      </c>
+      <c r="E40" s="77">
+        <v>45762</v>
+      </c>
+      <c r="F40" s="77">
+        <f>E40+1</f>
+        <v>45763</v>
+      </c>
       <c r="G40" s="14"/>
-      <c r="H40" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H40" s="14"/>
       <c r="I40" s="31"/>
       <c r="J40" s="31"/>
       <c r="K40" s="31"/>
@@ -6042,24 +6111,20 @@
       <c r="BE40" s="31"/>
     </row>
     <row r="41" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="45"/>
-      <c r="B41" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="80">
-        <v>45762</v>
-      </c>
-      <c r="F41" s="80">
-        <v>45763</v>
-      </c>
+      <c r="A41" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="79"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="14">
+      <c r="H41" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
@@ -6114,9 +6179,11 @@
     <row r="42" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="45"/>
       <c r="B42" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>59</v>
+      </c>
       <c r="D42" s="26"/>
       <c r="E42" s="80">
         <v>45762</v>
@@ -6180,18 +6247,22 @@
       <c r="BE42" s="31"/>
     </row>
     <row r="43" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="80">
+        <v>45762</v>
+      </c>
+      <c r="F43" s="80">
+        <v>45763</v>
+      </c>
       <c r="G43" s="14"/>
-      <c r="H43" s="14" t="str">
+      <c r="H43" s="14">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I43" s="31"/>
       <c r="J43" s="31"/>
@@ -6244,80 +6315,144 @@
       <c r="BE43" s="31"/>
     </row>
     <row r="44" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30" t="str">
+      <c r="A44" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="33"/>
-      <c r="AG44" s="33"/>
-      <c r="AH44" s="33"/>
-      <c r="AI44" s="33"/>
-      <c r="AJ44" s="33"/>
-      <c r="AK44" s="33"/>
-      <c r="AL44" s="33"/>
-      <c r="AM44" s="33"/>
-      <c r="AN44" s="33"/>
-      <c r="AO44" s="33"/>
-      <c r="AP44" s="33"/>
-      <c r="AQ44" s="33"/>
-      <c r="AR44" s="33"/>
-      <c r="AS44" s="33"/>
-      <c r="AT44" s="33"/>
-      <c r="AU44" s="33"/>
-      <c r="AV44" s="33"/>
-      <c r="AW44" s="33"/>
-      <c r="AX44" s="33"/>
-      <c r="AY44" s="33"/>
-      <c r="AZ44" s="33"/>
-      <c r="BA44" s="33"/>
-      <c r="BB44" s="33"/>
-      <c r="BC44" s="33"/>
-      <c r="BD44" s="33"/>
-      <c r="BE44" s="33"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="31"/>
+      <c r="AL44" s="31"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="31"/>
+      <c r="AO44" s="31"/>
+      <c r="AP44" s="31"/>
+      <c r="AQ44" s="31"/>
+      <c r="AR44" s="31"/>
+      <c r="AS44" s="31"/>
+      <c r="AT44" s="31"/>
+      <c r="AU44" s="31"/>
+      <c r="AV44" s="31"/>
+      <c r="AW44" s="31"/>
+      <c r="AX44" s="31"/>
+      <c r="AY44" s="31"/>
+      <c r="AZ44" s="31"/>
+      <c r="BA44" s="31"/>
+      <c r="BB44" s="31"/>
+      <c r="BC44" s="31"/>
+      <c r="BD44" s="31"/>
+      <c r="BE44" s="31"/>
     </row>
-    <row r="45" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="6"/>
+    <row r="45" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="33"/>
+      <c r="AC45" s="33"/>
+      <c r="AD45" s="33"/>
+      <c r="AE45" s="33"/>
+      <c r="AF45" s="33"/>
+      <c r="AG45" s="33"/>
+      <c r="AH45" s="33"/>
+      <c r="AI45" s="33"/>
+      <c r="AJ45" s="33"/>
+      <c r="AK45" s="33"/>
+      <c r="AL45" s="33"/>
+      <c r="AM45" s="33"/>
+      <c r="AN45" s="33"/>
+      <c r="AO45" s="33"/>
+      <c r="AP45" s="33"/>
+      <c r="AQ45" s="33"/>
+      <c r="AR45" s="33"/>
+      <c r="AS45" s="33"/>
+      <c r="AT45" s="33"/>
+      <c r="AU45" s="33"/>
+      <c r="AV45" s="33"/>
+      <c r="AW45" s="33"/>
+      <c r="AX45" s="33"/>
+      <c r="AY45" s="33"/>
+      <c r="AZ45" s="33"/>
+      <c r="BA45" s="33"/>
+      <c r="BB45" s="33"/>
+      <c r="BC45" s="33"/>
+      <c r="BD45" s="33"/>
+      <c r="BE45" s="33"/>
     </row>
     <row r="46" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="11"/>
-      <c r="F46" s="47"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="12"/>
+      <c r="C47" s="11"/>
+      <c r="F47" s="47"/>
+    </row>
+    <row r="48" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6332,8 +6467,8 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D19 D26:D34 D39:D44">
-    <cfRule type="dataBar" priority="158">
+  <conditionalFormatting sqref="D7:D19 D27:D35 D40:D45">
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6346,34 +6481,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BD19 I26:BD34 I39:BD44">
-    <cfRule type="expression" dxfId="113" priority="177">
+  <conditionalFormatting sqref="I5:BD19 I27:BD35 I40:BD45">
+    <cfRule type="expression" dxfId="119" priority="184">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BD19 I26:BD34 I39:BD44">
-    <cfRule type="expression" dxfId="112" priority="171">
+  <conditionalFormatting sqref="I7:BD19 I27:BD35 I40:BD45">
+    <cfRule type="expression" dxfId="118" priority="178">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="179" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE5:BE19 BE26:BE34 BE39:BE44">
-    <cfRule type="expression" dxfId="110" priority="179">
+  <conditionalFormatting sqref="BE5:BE19 BE27:BE35 BE40:BE45">
+    <cfRule type="expression" dxfId="116" priority="186">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE7:BE19 BE26:BE34 BE39:BE44">
-    <cfRule type="expression" dxfId="109" priority="182">
+  <conditionalFormatting sqref="BE7:BE19 BE27:BE35 BE40:BE45">
+    <cfRule type="expression" dxfId="115" priority="189">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="190" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="dataBar" priority="106">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6387,33 +6522,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:BD20">
-    <cfRule type="expression" dxfId="107" priority="109">
+    <cfRule type="expression" dxfId="113" priority="116">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:BD20">
-    <cfRule type="expression" dxfId="106" priority="107">
+    <cfRule type="expression" dxfId="112" priority="114">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="115" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE20">
-    <cfRule type="expression" dxfId="104" priority="110">
+    <cfRule type="expression" dxfId="110" priority="117">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE20">
-    <cfRule type="expression" dxfId="103" priority="111">
+    <cfRule type="expression" dxfId="109" priority="118">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="119" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="dataBar" priority="78">
+  <conditionalFormatting sqref="D26">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6426,34 +6561,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:BD25">
-    <cfRule type="expression" dxfId="101" priority="81">
+  <conditionalFormatting sqref="I26:BD26">
+    <cfRule type="expression" dxfId="107" priority="88">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:BD25">
-    <cfRule type="expression" dxfId="100" priority="79">
+  <conditionalFormatting sqref="I26:BD26">
+    <cfRule type="expression" dxfId="106" priority="86">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="87" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE25">
-    <cfRule type="expression" dxfId="98" priority="82">
+  <conditionalFormatting sqref="BE26">
+    <cfRule type="expression" dxfId="104" priority="89">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE25">
-    <cfRule type="expression" dxfId="97" priority="83">
+  <conditionalFormatting sqref="BE26">
+    <cfRule type="expression" dxfId="103" priority="90">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="91" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="57">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6466,34 +6601,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BD36">
-    <cfRule type="expression" dxfId="95" priority="60">
+  <conditionalFormatting sqref="I37:BD37">
+    <cfRule type="expression" dxfId="101" priority="67">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BD36">
-    <cfRule type="expression" dxfId="94" priority="58">
+  <conditionalFormatting sqref="I37:BD37">
+    <cfRule type="expression" dxfId="100" priority="65">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="66" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE36">
-    <cfRule type="expression" dxfId="92" priority="61">
+  <conditionalFormatting sqref="BE37">
+    <cfRule type="expression" dxfId="98" priority="68">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE36">
-    <cfRule type="expression" dxfId="91" priority="62">
+  <conditionalFormatting sqref="BE37">
+    <cfRule type="expression" dxfId="97" priority="69">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="70" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="71">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6506,34 +6641,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BD35">
-    <cfRule type="expression" dxfId="77" priority="74">
+  <conditionalFormatting sqref="I36:BD36">
+    <cfRule type="expression" dxfId="83" priority="81">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BD35">
-    <cfRule type="expression" dxfId="76" priority="72">
+  <conditionalFormatting sqref="I36:BD36">
+    <cfRule type="expression" dxfId="82" priority="79">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="80" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE35">
-    <cfRule type="expression" dxfId="74" priority="75">
+  <conditionalFormatting sqref="BE36">
+    <cfRule type="expression" dxfId="80" priority="82">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE35">
-    <cfRule type="expression" dxfId="73" priority="76">
+  <conditionalFormatting sqref="BE36">
+    <cfRule type="expression" dxfId="79" priority="83">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="dataBar" priority="64">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6546,34 +6681,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BD38">
-    <cfRule type="expression" dxfId="71" priority="67">
+  <conditionalFormatting sqref="I39:BD39">
+    <cfRule type="expression" dxfId="77" priority="74">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BD38">
-    <cfRule type="expression" dxfId="70" priority="65">
+  <conditionalFormatting sqref="I39:BD39">
+    <cfRule type="expression" dxfId="76" priority="72">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE38">
-    <cfRule type="expression" dxfId="68" priority="68">
+  <conditionalFormatting sqref="BE39">
+    <cfRule type="expression" dxfId="74" priority="75">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE38">
-    <cfRule type="expression" dxfId="67" priority="69">
+  <conditionalFormatting sqref="BE39">
+    <cfRule type="expression" dxfId="73" priority="76">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="77" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="50">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6586,34 +6721,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BD37">
-    <cfRule type="expression" dxfId="59" priority="53">
+  <conditionalFormatting sqref="I38:BD38">
+    <cfRule type="expression" dxfId="65" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BD37">
-    <cfRule type="expression" dxfId="58" priority="51">
+  <conditionalFormatting sqref="I38:BD38">
+    <cfRule type="expression" dxfId="64" priority="58">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="59" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE37">
-    <cfRule type="expression" dxfId="56" priority="54">
+  <conditionalFormatting sqref="BE38">
+    <cfRule type="expression" dxfId="62" priority="61">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE37">
-    <cfRule type="expression" dxfId="55" priority="55">
+  <conditionalFormatting sqref="BE38">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="dataBar" priority="36">
+  <conditionalFormatting sqref="D25">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6626,34 +6761,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BD24">
-    <cfRule type="expression" dxfId="47" priority="39">
+  <conditionalFormatting sqref="I25:BD25">
+    <cfRule type="expression" dxfId="53" priority="46">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BD24">
-    <cfRule type="expression" dxfId="46" priority="37">
+  <conditionalFormatting sqref="I25:BD25">
+    <cfRule type="expression" dxfId="52" priority="44">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE24">
-    <cfRule type="expression" dxfId="44" priority="40">
+  <conditionalFormatting sqref="BE25">
+    <cfRule type="expression" dxfId="50" priority="47">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE24">
-    <cfRule type="expression" dxfId="43" priority="41">
+  <conditionalFormatting sqref="BE25">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6667,33 +6802,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:BD23">
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="47" priority="39">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:BD23">
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="46" priority="37">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="38" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE23">
-    <cfRule type="expression" dxfId="38" priority="33">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE23">
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="43" priority="41">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6707,33 +6842,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BD21">
-    <cfRule type="expression" dxfId="35" priority="11">
+    <cfRule type="expression" dxfId="41" priority="18">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BD21">
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="40" priority="16">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="17" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE21">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="38" priority="19">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE21">
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="37" priority="20">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6747,11 +6882,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BD22">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:BD22">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE22">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE22">
+    <cfRule type="expression" dxfId="7" priority="13">
+      <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+      <formula>AND(fin_tâche&gt;=BE$5,début_tâche&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1820A9E9-9F8B-46CB-B85D-0AF5963545D6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:BD24">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BD22">
+  <conditionalFormatting sqref="I24:BD24">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
@@ -6759,12 +6934,12 @@
       <formula>AND(fin_tâche&gt;=I$5,début_tâche&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE22">
+  <conditionalFormatting sqref="BE24">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND(TODAY()&gt;=BE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE22">
+  <conditionalFormatting sqref="BE24">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND(début_tâche&lt;=BE$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=BE$5)</formula>
     </cfRule>
@@ -6788,7 +6963,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="43" max="16383" man="1"/>
+    <brk id="44" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="2" max="1048575" man="1"/>
@@ -6812,7 +6987,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D19 D26:D34 D39:D44</xm:sqref>
+          <xm:sqref>D7:D19 D27:D35 D40:D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FCFC6403-7CCB-4FAA-8F1D-1392AD3D8CBC}">
@@ -6842,7 +7017,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D25</xm:sqref>
+          <xm:sqref>D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{82B00843-3B8B-4D98-BEDC-7488093EEF8A}">
@@ -6857,7 +7032,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2DF3B98D-4CEA-4C8F-A037-0113140225AD}">
@@ -6872,7 +7047,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{001B9232-FE34-4957-B3D5-F526AC78ECD3}">
@@ -6887,7 +7062,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38</xm:sqref>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EE7D60AA-09A3-4679-8259-BA6C52AAAE6C}">
@@ -6902,7 +7077,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{548DC720-C678-477D-B8D0-A9DEA501C283}">
@@ -6917,7 +7092,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D24</xm:sqref>
+          <xm:sqref>D25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1C7C2F8F-87FE-4F39-A18E-419B4316961A}">
@@ -6963,6 +7138,21 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1820A9E9-9F8B-46CB-B85D-0AF5963545D6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
